--- a/biology/Zoologie/Cordulie_à_taches_jaunes/Cordulie_à_taches_jaunes.xlsx
+++ b/biology/Zoologie/Cordulie_à_taches_jaunes/Cordulie_à_taches_jaunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cordulie_%C3%A0_taches_jaunes</t>
+          <t>Cordulie_à_taches_jaunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Somatochlora flavomaculata
 La Cordulie à taches jaunes (aussi appelée Chlorocordulie à taches jaunes), ou Somatochlora flavomaculata (Vander Linden, 1825) est un odonate appartenant au sous-ordre
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cordulie_%C3%A0_taches_jaunes</t>
+          <t>Cordulie_à_taches_jaunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critères de détermination de l'individu mature
-La Cordulie à taches jaunes se reconnaît principalement grâce à :
+          <t>Critères de détermination de l'individu mature</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cordulie à taches jaunes se reconnaît principalement grâce à :
 Ses yeux verts (caractéristiques du genre Somatochlora) ;
 Son thorax vert métallique ;
-La présence d’un chapelet de taches jaunes latérales sur l’abdomen pour les femelles. Cependant, ces taches s’assombrissent chez les individus matures [1].
+La présence d’un chapelet de taches jaunes latérales sur l’abdomen pour les femelles. Cependant, ces taches s’assombrissent chez les individus matures .
 Somatochlora flavomaculata est un odonate de taille moyenne, plus petit que Somatochlora metallica. Sa taille est comparable à celle de Cordulia aenea, soit environ de 45 à 54 mm.
-Critères de détermination de l'exuvie
-L'exuvie de l'espèce se présente comme celle des Anisoptères :
-Présence d’une pyramide anale,
-Le masque en forme de cuillère  dents plutôt régulières,
-Puis, il y a présence d'un sillon à la base du masque (typique chez les Corduliidae) et d'épines dorsales et latérales sur les segments 5 à 9 (au segment 9, les épines dorsales et latérales sont bien développées)[2].
 </t>
         </is>
       </c>
@@ -536,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cordulie_%C3%A0_taches_jaunes</t>
+          <t>Cordulie_à_taches_jaunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,14 +563,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les mâles ont souvent un vol rapide et furtif. Ils défendent leur territoire au-dessus de zones sèches telles que les chemins, les lisières, les clairières ou roselières, mais aussi sur les plans d’eau.
-Les femelles sont généralement plus discrètes [3].
-Sa période de vol va de mai jusqu’à mi-août. Elle est abondante en juin et juillet.
+          <t>Critères de détermination de l'exuvie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exuvie de l'espèce se présente comme celle des Anisoptères :
+Présence d’une pyramide anale,
+Le masque en forme de cuillère  dents plutôt régulières,
+Puis, il y a présence d'un sillon à la base du masque (typique chez les Corduliidae) et d'épines dorsales et latérales sur les segments 5 à 9 (au segment 9, les épines dorsales et latérales sont bien développées).
 </t>
         </is>
       </c>
@@ -569,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cordulie_%C3%A0_taches_jaunes</t>
+          <t>Cordulie_à_taches_jaunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,13 +603,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la retrouve dans les marais, les prairies inondées, les franges de tourbières et de roselières. Elle y sillonne les trous d’eau riches en végétation (mares ou fossés par exemple). On peut la trouver parfois dans les rivières lentes et bordures de lacs.
-Elle chasse plutôt le long des lisières forestières, loin des points d’eau.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles ont souvent un vol rapide et furtif. Ils défendent leur territoire au-dessus de zones sèches telles que les chemins, les lisières, les clairières ou roselières, mais aussi sur les plans d’eau.
+Les femelles sont généralement plus discrètes .
+Sa période de vol va de mai jusqu’à mi-août. Elle est abondante en juin et juillet.
 </t>
         </is>
       </c>
@@ -601,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cordulie_%C3%A0_taches_jaunes</t>
+          <t>Cordulie_à_taches_jaunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,13 +638,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la retrouve dans les marais, les prairies inondées, les franges de tourbières et de roselières. Elle y sillonne les trous d’eau riches en végétation (mares ou fossés par exemple). On peut la trouver parfois dans les rivières lentes et bordures de lacs.
+Elle chasse plutôt le long des lisières forestières, loin des points d’eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cordulie_à_taches_jaunes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordulie_%C3%A0_taches_jaunes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition et statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cordulie à taches jaunes occupe une vaste aire de répartition qui s’étend des rivages atlantiques à la Sibérie orientale. Totalement absente des Iles Britanniques et de la Péninsule Ibérique, elle atteint la Méditerranée plus à l’est, avec des populations disséminées de l’Italie à la Turquie.
-Cette espèce est généralement rare, mais peut être localement commune dans les vastes zones palustres. Elle est cependant en déclin dans de nombreuses régions. Dans le Nord Pas-de-Calais elle est considérée comme Très rare, et aucune preuve de sa reproduction n’a été confirmée [4].
+Cette espèce est généralement rare, mais peut être localement commune dans les vastes zones palustres. Elle est cependant en déclin dans de nombreuses régions. Dans le Nord Pas-de-Calais elle est considérée comme Très rare, et aucune preuve de sa reproduction n’a été confirmée .
 </t>
         </is>
       </c>
